--- a/results/tinybert/dilemma/confidence/0.1/percents/scores-10.xlsx
+++ b/results/tinybert/dilemma/confidence/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="67">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -46,88 +46,157 @@
     <t>illegal</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>frustrating</t>
+  </si>
+  <si>
+    <t>harmful</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>vicious</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>dark</t>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>unfortunate</t>
+  </si>
+  <si>
+    <t>excessive</t>
+  </si>
+  <si>
+    <t>outdated</t>
+  </si>
+  <si>
+    <t>terribly</t>
+  </si>
+  <si>
+    <t>consuming</t>
+  </si>
+  <si>
+    <t>overly</t>
+  </si>
+  <si>
+    <t>hated</t>
+  </si>
+  <si>
+    <t>racist</t>
+  </si>
+  <si>
+    <t>harsh</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>destroying</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
-    <t>needles</t>
-  </si>
-  <si>
-    <t>differently</t>
-  </si>
-  <si>
-    <t>unfortunate</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>blocking</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>overly</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>only</t>
-  </si>
-  <si>
     <t>0.95-positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>impressive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -503,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS30"/>
+  <dimension ref="A1:BS38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="S1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="AK1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AT1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="BC1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="BL1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -734,13 +803,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.01529433568467076</v>
+        <v>0.006985510843126281</v>
       </c>
       <c r="C3">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -752,19 +821,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>72</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3">
+        <v>0.1288937458739783</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>52</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.01808059248116751</v>
+        <v>0.008120423163416057</v>
       </c>
       <c r="U3">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="V3">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -776,19 +869,43 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>33</v>
+        <v>72</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC3">
+        <v>0.08710516954710526</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
+      </c>
+      <c r="AE3">
+        <v>5</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>52</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.4205789023099984</v>
+        <v>0.00977914116999342</v>
       </c>
       <c r="AM3">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AN3">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="AO3">
         <v>1</v>
@@ -800,19 +917,43 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>33</v>
+        <v>72</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU3">
+        <v>0.0800600482604155</v>
+      </c>
+      <c r="AV3">
+        <v>5</v>
+      </c>
+      <c r="AW3">
+        <v>5</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>52</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.3572347061641361</v>
+        <v>0.2147608152393205</v>
       </c>
       <c r="BE3">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BF3">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -824,7 +965,31 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>33</v>
+        <v>72</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM3">
+        <v>0.07715236100905316</v>
+      </c>
+      <c r="BN3">
+        <v>5</v>
+      </c>
+      <c r="BO3">
+        <v>5</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -832,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.001699893523968718</v>
+        <v>0.00446916539152714</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -850,19 +1015,43 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4">
+        <v>0.09217553011149064</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>72</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.002011438458738234</v>
+        <v>0.005280783483386966</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="V4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -874,19 +1063,43 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4">
+        <v>0.07555536358539461</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>72</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.05350982452987931</v>
+        <v>0.006466994540720558</v>
       </c>
       <c r="AM4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AN4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -898,19 +1111,43 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU4">
+        <v>0.07385387937646179</v>
+      </c>
+      <c r="AV4">
+        <v>2</v>
+      </c>
+      <c r="AW4">
+        <v>2</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>9</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD4">
-        <v>0.05149283652883824</v>
+        <v>0.1455285950364317</v>
       </c>
       <c r="BE4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="BF4">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -922,7 +1159,31 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM4">
+        <v>0.07361625746898734</v>
+      </c>
+      <c r="BN4">
+        <v>2</v>
+      </c>
+      <c r="BO4">
+        <v>2</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -930,13 +1191,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.001473708921673062</v>
+        <v>0.001054416972551126</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -948,19 +1209,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5">
+        <v>0.07784466496405502</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.001694943570348015</v>
+        <v>0.00121139678000667</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -972,19 +1257,43 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5">
+        <v>0.07442962051153323</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>9</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL5">
-        <v>0.04514726671445907</v>
+        <v>0.001440828806287849</v>
       </c>
       <c r="AM5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AN5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -996,19 +1305,43 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU5">
+        <v>0.07275337559553265</v>
+      </c>
+      <c r="AV5">
+        <v>3</v>
+      </c>
+      <c r="AW5">
+        <v>3</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>72</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD5">
-        <v>0.04357506136621236</v>
+        <v>0.03394085937894899</v>
       </c>
       <c r="BE5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BF5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -1020,7 +1353,31 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM5">
+        <v>0.07208708731387514</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1028,13 +1385,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.001269037604166909</v>
+        <v>0.001049037620655442</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1046,19 +1403,43 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6">
+        <v>0.07646512978124401</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>34</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.001480636784707935</v>
+        <v>0.001185844858502172</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1070,19 +1451,43 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6">
+        <v>0.07283744246119284</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>34</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AL6">
-        <v>0.040888681375787</v>
+        <v>0.001385793898432009</v>
       </c>
       <c r="AM6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO6">
         <v>1</v>
@@ -1094,19 +1499,43 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU6">
+        <v>0.07222585194037598</v>
+      </c>
+      <c r="AV6">
+        <v>2</v>
+      </c>
+      <c r="AW6">
+        <v>2</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>34</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD6">
-        <v>0.04056336073045778</v>
+        <v>0.03220148114854619</v>
       </c>
       <c r="BE6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1118,7 +1547,31 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM6">
+        <v>0.0719734341482518</v>
+      </c>
+      <c r="BN6">
+        <v>2</v>
+      </c>
+      <c r="BO6">
+        <v>2</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1126,13 +1579,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001261642412520518</v>
+        <v>0.001023485699150945</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1144,79 +1597,175 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>21</v>
+        <v>62</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <v>0.07569259007886982</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>48</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.001445509624387575</v>
+        <v>0.001064473231355811</v>
       </c>
       <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>62</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC7">
+        <v>0.07194582275300221</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>48</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL7">
+        <v>0.001204946207493327</v>
+      </c>
+      <c r="AM7">
+        <v>3</v>
+      </c>
+      <c r="AN7">
+        <v>3</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR7">
         <v>5</v>
       </c>
-      <c r="V7">
+      <c r="AT7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU7">
+        <v>0.07143784389544558</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD7">
+        <v>0.02943980432171031</v>
+      </c>
+      <c r="BE7">
+        <v>3</v>
+      </c>
+      <c r="BF7">
+        <v>3</v>
+      </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
         <v>5</v>
       </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>21</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL7">
-        <v>0.03947794083690483</v>
-      </c>
-      <c r="AM7">
-        <v>5</v>
-      </c>
-      <c r="AN7">
-        <v>5</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>21</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD7">
-        <v>0.03887689761184577</v>
-      </c>
-      <c r="BE7">
-        <v>5</v>
-      </c>
-      <c r="BF7">
-        <v>5</v>
-      </c>
-      <c r="BG7">
-        <v>1</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>21</v>
+      <c r="BL7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM7">
+        <v>0.07195566144821632</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>1</v>
+      </c>
+      <c r="BR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1224,7 +1773,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.001049575903367973</v>
+        <v>0.0009750715320897927</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1242,19 +1791,43 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>134</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8">
+        <v>0.07492005037649566</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>62</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T8">
-        <v>0.001196075678427134</v>
+        <v>0.0009933917494346081</v>
       </c>
       <c r="U8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1266,13 +1839,37 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC8">
+        <v>0.0710542030448116</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>62</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.03380861495935056</v>
+        <v>0.001124378086116769</v>
       </c>
       <c r="AM8">
         <v>4</v>
@@ -1290,13 +1887,37 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>20</v>
+        <v>62</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU8">
+        <v>0.07131415657616792</v>
+      </c>
+      <c r="AV8">
+        <v>2</v>
+      </c>
+      <c r="AW8">
+        <v>2</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>48</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.03417873385747918</v>
+        <v>0.02393943455413287</v>
       </c>
       <c r="BE8">
         <v>4</v>
@@ -1314,7 +1935,31 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>20</v>
+        <v>62</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM8">
+        <v>0.07195566144821632</v>
+      </c>
+      <c r="BN8">
+        <v>1</v>
+      </c>
+      <c r="BO8">
+        <v>1</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>1</v>
+      </c>
+      <c r="BR8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -1322,13 +1967,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0005945175381779731</v>
+        <v>0.0008486439623418003</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1340,19 +1985,43 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>64</v>
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9">
+        <v>0.06053400382174756</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T9">
-        <v>0.0005503123888029308</v>
+        <v>0.0008911840634166196</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1364,19 +2033,43 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC9">
+        <v>0.06986477284893659</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL9">
-        <v>0.01898087270496025</v>
+        <v>0.0009848065760699675</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO9">
         <v>1</v>
@@ -1388,19 +2081,43 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU9">
+        <v>0.07130760170055872</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>2</v>
       </c>
       <c r="BC9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD9">
-        <v>0.02269059468677979</v>
+        <v>0.02363421559166952</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG9">
         <v>1</v>
@@ -1413,6 +2130,30 @@
       </c>
       <c r="BJ9">
         <v>0</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM9">
+        <v>0.07175852264972804</v>
+      </c>
+      <c r="BN9">
+        <v>1</v>
+      </c>
+      <c r="BO9">
+        <v>1</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>1</v>
+      </c>
+      <c r="BR9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -1420,13 +2161,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.0005864500563819096</v>
+        <v>0.0008271265547590658</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1438,19 +2179,43 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>76</v>
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10">
+        <v>0.06042364100712268</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T10">
-        <v>0.0005119918502716293</v>
+        <v>0.000834505937815337</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -1462,19 +2227,43 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>76</v>
+        <v>134</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC10">
+        <v>0.06973739860490938</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>2</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL10">
-        <v>0.01898087270496025</v>
+        <v>0.0009277874278069254</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO10">
         <v>1</v>
@@ -1487,18 +2276,42 @@
       </c>
       <c r="AR10">
         <v>0</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU10">
+        <v>0.07130760170055872</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>2</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD10">
-        <v>0.02269059468677979</v>
+        <v>0.02363421559166952</v>
       </c>
       <c r="BE10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG10">
         <v>1</v>
@@ -1511,6 +2324,30 @@
       </c>
       <c r="BJ10">
         <v>0</v>
+      </c>
+      <c r="BL10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM10">
+        <v>0.07159692925131078</v>
+      </c>
+      <c r="BN10">
+        <v>3</v>
+      </c>
+      <c r="BO10">
+        <v>3</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>1</v>
+      </c>
+      <c r="BR10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -1518,13 +2355,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0004248053084547615</v>
+        <v>0.0006388364382107117</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1537,18 +2374,42 @@
       </c>
       <c r="H11">
         <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11">
+        <v>0.06042364100712268</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11">
-        <v>0.0005020612701318229</v>
+        <v>0.0007562227777341735</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -1562,17 +2423,41 @@
       <c r="Z11">
         <v>0</v>
       </c>
+      <c r="AB11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC11">
+        <v>0.06973739860490938</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>2</v>
+      </c>
       <c r="AK11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL11">
-        <v>0.01898087270496025</v>
+        <v>0.0009277874278069254</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11">
         <v>1</v>
@@ -1585,18 +2470,42 @@
       </c>
       <c r="AR11">
         <v>0</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU11">
+        <v>0.07111223840822842</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>5</v>
       </c>
       <c r="BC11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BD11">
-        <v>0.02269059468677979</v>
+        <v>0.02341679331286917</v>
       </c>
       <c r="BE11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG11">
         <v>1</v>
@@ -1608,7 +2517,31 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM11">
+        <v>0.07105345308863992</v>
+      </c>
+      <c r="BN11">
+        <v>2</v>
+      </c>
+      <c r="BO11">
+        <v>2</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>1</v>
+      </c>
+      <c r="BR11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -1616,13 +2549,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0004248053084547615</v>
+        <v>0.0006388364382107117</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1635,18 +2568,42 @@
       </c>
       <c r="H12">
         <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12">
+        <v>0.06025809678518537</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T12">
-        <v>0.0005020612701318229</v>
+        <v>0.0007562227777341735</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>1</v>
@@ -1660,17 +2617,41 @@
       <c r="Z12">
         <v>0</v>
       </c>
+      <c r="AB12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC12">
+        <v>0.06954633723886852</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>5</v>
+      </c>
       <c r="AK12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL12">
-        <v>0.01898087270496025</v>
+        <v>0.0009209080643249454</v>
       </c>
       <c r="AM12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO12">
         <v>1</v>
@@ -1682,19 +2663,43 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU12">
+        <v>0.07040246121195987</v>
+      </c>
+      <c r="AV12">
+        <v>2</v>
+      </c>
+      <c r="AW12">
+        <v>2</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>62</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD12">
-        <v>0.02269059468677979</v>
+        <v>0.02341679331286917</v>
       </c>
       <c r="BE12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG12">
         <v>1</v>
@@ -1706,7 +2711,31 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM12">
+        <v>0.070969967455775</v>
+      </c>
+      <c r="BN12">
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <v>1</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>1</v>
+      </c>
+      <c r="BR12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -1714,13 +2743,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0004248053084547615</v>
+        <v>0.0006381640192237513</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1732,19 +2761,43 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>0.05959591989743607</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>17</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T13">
-        <v>0.0005020612701318229</v>
+        <v>0.0007530287875461114</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -1756,19 +2809,43 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC13">
+        <v>0.06878209177470512</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>17</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL13">
-        <v>0.01885262356506186</v>
+        <v>0.0009209080643249454</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO13">
         <v>1</v>
@@ -1781,18 +2858,42 @@
       </c>
       <c r="AR13">
         <v>1</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU13">
+        <v>0.07033078523890723</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>1</v>
+      </c>
+      <c r="AZ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>17</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD13">
-        <v>0.02253727985781506</v>
+        <v>0.02341679331286917</v>
       </c>
       <c r="BE13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG13">
         <v>1</v>
@@ -1805,6 +2906,30 @@
       </c>
       <c r="BJ13">
         <v>1</v>
+      </c>
+      <c r="BL13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM13">
+        <v>0.07018141226182194</v>
+      </c>
+      <c r="BN13">
+        <v>1</v>
+      </c>
+      <c r="BO13">
+        <v>1</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>1</v>
+      </c>
+      <c r="BR13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -1812,13 +2937,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0004248053084547615</v>
+        <v>0.0006381640192237513</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1830,19 +2955,43 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14">
+        <v>0.05893374300968678</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>29</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T14">
-        <v>0.0005020612701318229</v>
+        <v>0.0007530287875461114</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -1854,19 +3003,43 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC14">
+        <v>0.06801784631054174</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>29</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL14">
-        <v>0.01885262356506186</v>
+        <v>0.0009209080643249454</v>
       </c>
       <c r="AM14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO14">
         <v>1</v>
@@ -1879,18 +3052,42 @@
       </c>
       <c r="AR14">
         <v>1</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU14">
+        <v>0.06954933206958604</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>29</v>
       </c>
       <c r="BC14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD14">
-        <v>0.02253727985781506</v>
+        <v>0.02298194875526847</v>
       </c>
       <c r="BE14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG14">
         <v>1</v>
@@ -1902,7 +3099,31 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="BL14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BM14">
+        <v>0.07013347202902802</v>
+      </c>
+      <c r="BN14">
+        <v>2</v>
+      </c>
+      <c r="BO14">
+        <v>2</v>
+      </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
+      <c r="BQ14">
+        <v>1</v>
+      </c>
+      <c r="BR14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -1910,13 +3131,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0004241330183050896</v>
+        <v>0.0006381640192237513</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1929,18 +3150,42 @@
       </c>
       <c r="H15">
         <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15">
+        <v>0.05849229175118725</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>37</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T15">
-        <v>0.0004988678919208811</v>
+        <v>0.0007530287875461114</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -1954,17 +3199,41 @@
       <c r="Z15">
         <v>1</v>
       </c>
+      <c r="AB15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC15">
+        <v>0.06750834933443281</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>37</v>
+      </c>
       <c r="AK15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL15">
-        <v>0.01872437442516349</v>
+        <v>0.0009071493373609854</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO15">
         <v>1</v>
@@ -1976,19 +3245,43 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU15">
+        <v>0.06902836329003857</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>37</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="BD15">
-        <v>0.02238396502885033</v>
+        <v>0.0224822914000991</v>
       </c>
       <c r="BE15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG15">
         <v>1</v>
@@ -2000,7 +3293,31 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM15">
+        <v>0.06965570879918656</v>
+      </c>
+      <c r="BN15">
+        <v>1</v>
+      </c>
+      <c r="BO15">
+        <v>1</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>1</v>
+      </c>
+      <c r="BR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -2008,13 +3325,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0004241330183050896</v>
+        <v>0.0006368191812498303</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2026,19 +3343,43 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16">
+        <v>0.05534695153437813</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>94</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.0004988678919208811</v>
+        <v>0.000746640807169987</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -2050,19 +3391,43 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC16">
+        <v>0.0638781833796567</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>94</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL16">
-        <v>0.01872437442516349</v>
+        <v>0.0008865112469150454</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO16">
         <v>1</v>
@@ -2074,19 +3439,43 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU16">
+        <v>0.06531646073576292</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>1</v>
+      </c>
+      <c r="AZ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>94</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD16">
-        <v>0.02238396502885033</v>
+        <v>0.02232968191886742</v>
       </c>
       <c r="BE16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG16">
         <v>1</v>
@@ -2098,21 +3487,45 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="BL16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM16">
+        <v>0.06591007162790956</v>
+      </c>
+      <c r="BN16">
+        <v>1</v>
+      </c>
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>1</v>
+      </c>
+      <c r="BR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS16">
+        <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:62">
+    <row r="17" spans="1:71">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.0004234607281554176</v>
+        <v>0.000634801924288949</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2124,19 +3537,43 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1097</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T17">
-        <v>0.0004956745137099393</v>
+        <v>0.0007370588366058007</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>1</v>
@@ -2148,19 +3585,43 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1097</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL17">
-        <v>0.01872437442516349</v>
+        <v>0.0008796318834330654</v>
       </c>
       <c r="AM17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO17">
         <v>1</v>
@@ -2172,19 +3633,43 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>1097</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD17">
-        <v>0.02238396502885033</v>
+        <v>0.02211225964006707</v>
       </c>
       <c r="BE17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG17">
         <v>1</v>
@@ -2196,21 +3681,45 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="BL17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>1</v>
+      </c>
+      <c r="BO17">
+        <v>1</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>1</v>
+      </c>
+      <c r="BR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS17">
+        <v>1097</v>
       </c>
     </row>
-    <row r="18" spans="1:62">
+    <row r="18" spans="1:71">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0004234607281554176</v>
+        <v>0.0006341295053019886</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2222,19 +3731,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T18">
-        <v>0.0004956745137099393</v>
+        <v>0.0007338648464177384</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -2246,19 +3755,19 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AK18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL18">
-        <v>0.01872437442516349</v>
+        <v>0.0008521144295051454</v>
       </c>
       <c r="AM18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>1</v>
@@ -2270,19 +3779,19 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BC18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD18">
-        <v>0.02238396502885033</v>
+        <v>0.02124257052486566</v>
       </c>
       <c r="BE18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG18">
         <v>1</v>
@@ -2294,21 +3803,21 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:62">
+    <row r="19" spans="1:71">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0004234607281554176</v>
+        <v>0.0006314398293541468</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2320,19 +3829,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T19">
-        <v>0.0004956745137099393</v>
+        <v>0.0007210888856654899</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -2344,19 +3853,19 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL19">
-        <v>0.01808312872567159</v>
+        <v>0.0008108382486132655</v>
       </c>
       <c r="AM19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO19">
         <v>1</v>
@@ -2368,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BC19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19">
-        <v>0.02161739088402669</v>
+        <v>0.01993803685206356</v>
       </c>
       <c r="BE19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG19">
         <v>1</v>
@@ -2392,21 +3901,21 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:62">
+    <row r="20" spans="1:71">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0004234607281554176</v>
+        <v>0.000627405315432384</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2418,19 +3927,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T20">
-        <v>0.0004956745137099393</v>
+        <v>0.0007019249445371171</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>1</v>
@@ -2442,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AL20">
-        <v>0.01795487958577321</v>
+        <v>0.0006290639154142094</v>
       </c>
       <c r="AM20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AO20">
         <v>1</v>
@@ -2466,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD20">
-        <v>0.02146407605506196</v>
+        <v>0.01674151546762698</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -2490,15 +3999,15 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:62">
+    <row r="21" spans="1:71">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0004200992774070578</v>
+        <v>0.0004256668191448211</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2516,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T21">
-        <v>0.0004797076226552303</v>
+        <v>0.0005030838550934283</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -2540,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL21">
-        <v>0.01744188302617969</v>
+        <v>0.0006162318307106237</v>
       </c>
       <c r="AM21">
         <v>1</v>
@@ -2564,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD21">
-        <v>0.02085081673920305</v>
+        <v>0.01674151546762698</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -2588,15 +4097,15 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:62">
+    <row r="22" spans="1:71">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0004194269872573858</v>
+        <v>0.0004256668191448211</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2614,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T22">
-        <v>0.0004765142444442886</v>
+        <v>0.0005030838550934283</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -2638,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL22">
-        <v>0.01692888646658616</v>
+        <v>0.0006162318307106237</v>
       </c>
       <c r="AM22">
         <v>1</v>
@@ -2662,13 +4171,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD22">
-        <v>0.02023755742334413</v>
+        <v>0.01674151546762698</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -2686,15 +4195,15 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:62">
+    <row r="23" spans="1:71">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.000416737826658698</v>
+        <v>0.0004256668191448211</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2712,13 +4221,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T23">
-        <v>0.0004637407316005215</v>
+        <v>0.0005030838550934283</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -2736,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AL23">
-        <v>0.01692888646658616</v>
+        <v>0.0006162318307106237</v>
       </c>
       <c r="AM23">
         <v>1</v>
@@ -2760,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BD23">
-        <v>0.02023755742334413</v>
+        <v>0.01674151546762698</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -2784,15 +4293,15 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:62">
+    <row r="24" spans="1:71">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0004140486660600102</v>
+        <v>0.0004256668191448211</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2810,13 +4319,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T24">
-        <v>0.0004509672187567543</v>
+        <v>0.0005030838550934283</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -2834,19 +4343,19 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AL24">
-        <v>0.01657050276891656</v>
+        <v>0.0006162318307106237</v>
       </c>
       <c r="AM24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO24">
         <v>1</v>
@@ -2858,13 +4367,13 @@
         <v>0</v>
       </c>
       <c r="AR24">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="BC24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BD24">
-        <v>0.01977761293644995</v>
+        <v>0.01652409318882663</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -2882,15 +4391,15 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:62">
+    <row r="25" spans="1:71">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0004140486660600102</v>
+        <v>0.0004249944001578606</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2908,13 +4417,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T25">
-        <v>0.0004509672187567543</v>
+        <v>0.0004998898649053662</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -2932,37 +4441,37 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AK25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL25">
+        <v>0.0006093524672286436</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL25">
-        <v>0.01654413904689103</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>1</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>19</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="BD25">
-        <v>0.01824446464680267</v>
+        <v>0.01652409318882663</v>
       </c>
       <c r="BE25">
         <v>1</v>
@@ -2980,15 +4489,15 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:62">
+    <row r="26" spans="1:71">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0004120317956109943</v>
+        <v>0.0004249944001578606</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3006,13 +4515,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T26">
-        <v>0.0004413870841239289</v>
+        <v>0.0004998898649053662</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -3030,43 +4539,43 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL26">
+        <v>0.0006093524672286436</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>1</v>
+      </c>
+      <c r="BC26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AL26">
-        <v>0.01526164764790722</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>1</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>29</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="BD26">
-        <v>0.0177299242163685</v>
+        <v>0.01630667091002628</v>
       </c>
       <c r="BE26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <v>1</v>
@@ -3078,15 +4587,15 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:62">
+    <row r="27" spans="1:71">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.0004053088941142748</v>
+        <v>0.0004243219811709001</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3104,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T27">
-        <v>0.000409453302014511</v>
+        <v>0.000496695874717304</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -3128,19 +4637,19 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="AK27" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="AL27">
-        <v>0.015031513090136</v>
+        <v>0.0006024731037466637</v>
       </c>
       <c r="AM27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO27">
         <v>1</v>
@@ -3152,13 +4661,13 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD27">
-        <v>0.01671131635715539</v>
+        <v>0.01630667091002628</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -3176,15 +4685,15 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:62">
+    <row r="28" spans="1:71">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0003985859926175552</v>
+        <v>0.0004243219811709001</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3202,13 +4711,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T28">
-        <v>0.0003775195199050931</v>
+        <v>0.000496695874717304</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -3226,13 +4735,13 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL28">
-        <v>0.01397915624892342</v>
+        <v>0.0006024731037466637</v>
       </c>
       <c r="AM28">
         <v>1</v>
@@ -3250,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD28">
-        <v>0.01594474221233174</v>
+        <v>0.01630667091002628</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -3274,15 +4783,15 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:62">
+    <row r="29" spans="1:71">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0003952245418691954</v>
+        <v>0.0004243219811709001</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3300,13 +4809,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T29">
-        <v>0.0003615526288503841</v>
+        <v>0.000496695874717304</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -3324,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL29">
-        <v>0.01333791054943152</v>
+        <v>0.0006024731037466637</v>
       </c>
       <c r="AM29">
         <v>1</v>
@@ -3348,19 +4857,19 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="BC29" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="BD29">
-        <v>0.01589014626879176</v>
+        <v>0.01630667091002628</v>
       </c>
       <c r="BE29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG29">
         <v>1</v>
@@ -3372,15 +4881,15 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>76</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:62">
+    <row r="30" spans="1:71">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.0003253063663033119</v>
+        <v>0.0004243219811709001</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3398,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T30">
-        <v>2.944129491243795E-05</v>
+        <v>0.000496695874717304</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -3422,13 +4931,13 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>0.0006024731037466637</v>
       </c>
       <c r="AM30">
         <v>1</v>
@@ -3446,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="BC30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>0.01608924863122593</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -3470,7 +4979,791 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>148</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:71">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>0.0004236495621839397</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31">
+        <v>0.0004935018845292419</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>3</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL31">
+        <v>0.0005955937402646837</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>3</v>
+      </c>
+      <c r="BC31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD31">
+        <v>0.01478471495842383</v>
+      </c>
+      <c r="BE31">
+        <v>1</v>
+      </c>
+      <c r="BF31">
+        <v>1</v>
+      </c>
+      <c r="BG31">
+        <v>1</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:71">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>0.0004196150482621769</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T32">
+        <v>0.0004743379434008691</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>9</v>
+      </c>
+      <c r="AK32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL32">
+        <v>0.0005543175593728036</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>9</v>
+      </c>
+      <c r="BC32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD32">
+        <v>0.01456729267962348</v>
+      </c>
+      <c r="BE32">
+        <v>1</v>
+      </c>
+      <c r="BF32">
+        <v>1</v>
+      </c>
+      <c r="BG32">
+        <v>1</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:62">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>0.0004189426292752165</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33">
+        <v>0.0004711439532128069</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>10</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL33">
+        <v>0.0005474381958908238</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>10</v>
+      </c>
+      <c r="BC33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD33">
+        <v>0.01434987040082313</v>
+      </c>
+      <c r="BE33">
+        <v>1</v>
+      </c>
+      <c r="BF33">
+        <v>1</v>
+      </c>
+      <c r="BG33">
+        <v>1</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:62">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>0.0004182702102882561</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>11</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34">
+        <v>0.0004679499630247448</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>11</v>
+      </c>
+      <c r="AK34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL34">
+        <v>0.0005405588324088437</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>11</v>
+      </c>
+      <c r="BC34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD34">
+        <v>0.01369760356442208</v>
+      </c>
+      <c r="BE34">
+        <v>1</v>
+      </c>
+      <c r="BF34">
+        <v>1</v>
+      </c>
+      <c r="BG34">
+        <v>1</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:62">
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>0.0004162529533273748</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>14</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T35">
+        <v>0.0004583679924605584</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>14</v>
+      </c>
+      <c r="AK35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL35">
+        <v>0.0005199207419629038</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>14</v>
+      </c>
+      <c r="BC35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD35">
+        <v>0.01326275900682138</v>
+      </c>
+      <c r="BE35">
+        <v>1</v>
+      </c>
+      <c r="BF35">
+        <v>1</v>
+      </c>
+      <c r="BG35">
+        <v>1</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:62">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>0.0004149081153534539</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>16</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T36">
+        <v>0.0004519800120844341</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>16</v>
+      </c>
+      <c r="AK36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL36">
+        <v>0.0005061620149989437</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>16</v>
+      </c>
+      <c r="BC36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD36">
+        <v>0.01130595849761822</v>
+      </c>
+      <c r="BE36">
+        <v>1</v>
+      </c>
+      <c r="BF36">
+        <v>1</v>
+      </c>
+      <c r="BG36">
+        <v>1</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>0.0004088563444708098</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>25</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T37">
+        <v>0.0004232341003918748</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>25</v>
+      </c>
+      <c r="AK37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL37">
+        <v>0.0004442477436611237</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>25</v>
+      </c>
+      <c r="BC37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD37">
+        <v>0.008285030480507645</v>
+      </c>
+      <c r="BE37">
+        <v>4</v>
+      </c>
+      <c r="BF37">
+        <v>4</v>
+      </c>
+      <c r="BG37">
+        <v>1</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:62">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>0.0003738905571488663</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>77</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T38">
+        <v>0.0002571466106126434</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>77</v>
+      </c>
+      <c r="AK38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL38">
+        <v>8.652084259816381E-05</v>
+      </c>
+      <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
+        <v>1</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>77</v>
+      </c>
+      <c r="BC38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>1</v>
+      </c>
+      <c r="BF38">
+        <v>1</v>
+      </c>
+      <c r="BG38">
+        <v>1</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
